--- a/CSLibraryHistoricalBranchesList.xlsx
+++ b/CSLibraryHistoricalBranchesList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
   <si>
     <t>CSLibrary</t>
   </si>
@@ -79,9 +79,6 @@
     <t>.NET Framework 4</t>
   </si>
   <si>
-    <t>.Net Standard 2</t>
-  </si>
-  <si>
     <t>Xamarin From</t>
   </si>
   <si>
@@ -126,16 +123,10 @@
     <t>CSLibraryBT-NET6</t>
   </si>
   <si>
-    <t>CSLibrary2024-NETStandard</t>
-  </si>
-  <si>
     <t>Library File Name</t>
   </si>
   <si>
     <t>.Net Framework 4</t>
-  </si>
-  <si>
-    <t>CSLibraryBT-NETStandard</t>
   </si>
   <si>
     <t>CSLibraryBT-NET4</t>
@@ -228,6 +219,18 @@
   </si>
   <si>
     <t>CS710S-Inventory-MQTT (Android Only)</t>
+  </si>
+  <si>
+    <t>.Net Standard 2.1</t>
+  </si>
+  <si>
+    <t>.Net Standard 2.0</t>
+  </si>
+  <si>
+    <t>CSLibrary2024-NETStandard20</t>
+  </si>
+  <si>
+    <t>CSLibraryBT-NETStandard21</t>
   </si>
 </sst>
 </file>
@@ -829,7 +832,7 @@
   <dimension ref="A2:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -855,22 +858,22 @@
         <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
@@ -878,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>5</v>
@@ -887,19 +890,19 @@
         <v>9</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
@@ -916,13 +919,13 @@
         <v>12</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
@@ -939,13 +942,13 @@
         <v>13</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
@@ -962,13 +965,13 @@
         <v>14</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
@@ -976,28 +979,28 @@
         <v>1</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>20</v>
-      </c>
       <c r="G8" s="9" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
@@ -1005,22 +1008,22 @@
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
       <c r="D9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
@@ -1028,7 +1031,7 @@
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
       <c r="D10" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>11</v>
@@ -1037,13 +1040,13 @@
         <v>10</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
@@ -1051,28 +1054,28 @@
         <v>6</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="H11" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
@@ -1080,22 +1083,22 @@
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
       <c r="D12" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
@@ -1103,22 +1106,22 @@
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
       <c r="D13" s="6" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="E13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="G13" s="10" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
@@ -1126,7 +1129,7 @@
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
       <c r="D14" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>11</v>
@@ -1135,13 +1138,13 @@
         <v>10</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickTop="1"/>

--- a/CSLibraryHistoricalBranchesList.xlsx
+++ b/CSLibraryHistoricalBranchesList.xlsx
@@ -175,9 +175,6 @@
     <t xml:space="preserve"> WinUI3 (WinForm)</t>
   </si>
   <si>
-    <t>CS710S-C-Sharp-APP-for-WINFORM-DOTNET</t>
-  </si>
-  <si>
     <t>CS108-Mobile-CSharp-DotNetStd-App-v4</t>
   </si>
   <si>
@@ -231,6 +228,9 @@
   </si>
   <si>
     <t>CSLibraryBT-NETStandard21</t>
+  </si>
+  <si>
+    <t>CS710S-Windows-CSharp-Desktop-Demo</t>
   </si>
 </sst>
 </file>
@@ -831,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -873,7 +873,7 @@
         <v>32</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
@@ -902,7 +902,7 @@
         <v>25</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
@@ -925,7 +925,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
@@ -948,7 +948,7 @@
         <v>25</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
@@ -971,7 +971,7 @@
         <v>25</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
@@ -985,7 +985,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>18</v>
@@ -994,13 +994,13 @@
         <v>19</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>25</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
@@ -1023,7 +1023,7 @@
         <v>25</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
@@ -1046,7 +1046,7 @@
         <v>25</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
@@ -1060,7 +1060,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>22</v>
@@ -1069,13 +1069,13 @@
         <v>21</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
@@ -1083,7 +1083,7 @@
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
       <c r="D12" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>43</v>
@@ -1092,13 +1092,13 @@
         <v>10</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
@@ -1106,7 +1106,7 @@
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
       <c r="D13" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>23</v>
@@ -1115,13 +1115,13 @@
         <v>24</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>42</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
@@ -1144,7 +1144,7 @@
         <v>41</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickTop="1"/>

--- a/CSLibraryHistoricalBranchesList.xlsx
+++ b/CSLibraryHistoricalBranchesList.xlsx
@@ -224,13 +224,13 @@
     <t>.Net Standard 2.0</t>
   </si>
   <si>
-    <t>CSLibrary2024-NETStandard20</t>
-  </si>
-  <si>
     <t>CSLibraryBT-NETStandard21</t>
   </si>
   <si>
     <t>CS710S-Windows-CSharp-Desktop-Demo</t>
+  </si>
+  <si>
+    <t>CSLibrary2024-NETStandard</t>
   </si>
 </sst>
 </file>
@@ -832,7 +832,7 @@
   <dimension ref="A2:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -994,7 +994,7 @@
         <v>19</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>25</v>
@@ -1115,7 +1115,7 @@
         <v>24</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>42</v>
@@ -1144,7 +1144,7 @@
         <v>41</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickTop="1"/>
